--- a/Data/Input/Filmes.xlsx
+++ b/Data/Input/Filmes.xlsx
@@ -1,113 +1,301 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <x:workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danilo.cuencas\Desktop\prj_FilmesMarvel_Avaliacao\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EA53AC-C6EF-4817-8F95-7353B143484F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <x:bookViews>
-    <x:workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Filmes" sheetId="1" r:id="rId1"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="162913"/>
-  <x:extLst>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7844FEB-25C9-4107-AA32-5D0E6385EE7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Filmes" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="162913"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </x:ext>
-  </x:extLst>
-</x:workbook>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <x:si>
-    <x:t>The Marvels</x:t>
-  </x:si>
-  <x:si>
-    <x:t>62%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>82%</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+  <si>
+    <t>Black Panther</t>
+  </si>
+  <si>
+    <t>96%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>94%</t>
+  </si>
+  <si>
+    <t>91%</t>
+  </si>
+  <si>
+    <t>Avengers: Endgame</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
+    <t>Thor: Ragnarok</t>
+  </si>
+  <si>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t>98%</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>Spider-Man: Homecoming</t>
+  </si>
+  <si>
+    <t>Marvel&amp;apos;s the Avengers</t>
+  </si>
+  <si>
+    <t>Spider-Man: Far From Home</t>
+  </si>
+  <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>Shang-Chi and the Legend of the Ten Rings</t>
+  </si>
+  <si>
+    <t>Captain America: The Winter Soldier</t>
+  </si>
+  <si>
+    <t>Captain America: Civil War</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>Doctor Strange</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>Ant-Man and the Wasp</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy Vol. 2</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>Avengers: Infinity War</t>
+  </si>
+  <si>
+    <t>Black Panther: Wakanda Forever</t>
+  </si>
+  <si>
+    <t>84%</t>
+  </si>
+  <si>
+    <t>Ant-Man</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy Vol. 3</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>Captain America: The First Avenger</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>75%</t>
+  </si>
+  <si>
+    <t>Iron Man 3</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>Captain Marvel</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>Black Widow</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>Avengers: Age of Ultron</t>
+  </si>
+  <si>
+    <t>Doctor Strange in the Multiverse of Madness</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>Iron Man 2</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>The Incredible Hulk</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>Thor: The Dark World</t>
+  </si>
+  <si>
+    <t>Thor: Love and Thunder</t>
+  </si>
+  <si>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>The Marvels</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>Eternals</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>Ant-Man and The Wasp: Quantumania</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>Filmes</t>
+  </si>
+  <si>
+    <t>Tomatometer</t>
+  </si>
+  <si>
+    <t>Audiencia</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:u/>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border>
-      <x:left/>
-      <x:right/>
-      <x:top/>
-      <x:bottom/>
-      <x:diagonal/>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <x:extLst>
-    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </x:ext>
-    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </x:ext>
-  </x:extLst>
-</x:styleSheet>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -372,32 +560,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1"/>
-  <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <x:c r="A1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>